--- a/학습자료/단답형/한국사_연표_6 대한민국수립.xlsx
+++ b/학습자료/단답형/한국사_연표_6 대한민국수립.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
